--- a/DbTool/Template/ThemeSample/retroApricot.xlsx
+++ b/DbTool/Template/ThemeSample/retroApricot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\bin\Release\net6.0-windows\CustomTheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286B387-4EF1-4559-BF16-E7FF44AC0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCB2B0-FD7D-430F-955D-9B978A61D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
+    <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="StyleTemplate" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,31 +78,34 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -164,10 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -490,7 +493,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -499,12 +502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -514,12 +517,12 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/DbTool/Template/ThemeSample/retroApricot.xlsx
+++ b/DbTool/Template/ThemeSample/retroApricot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCB2B0-FD7D-430F-955D-9B978A61D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56147A58-19E2-4411-8DC2-EE7CA440789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
@@ -493,12 +493,12 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19.8" x14ac:dyDescent="0.4">
